--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-06-14</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T16:03:01+00:00</t>
+    <t>2024-06-21T08:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3643,10 +3643,10 @@
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>72</v>
@@ -4877,10 +4877,10 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S27" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>224</v>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:50:32+00:00</t>
+    <t>2024-06-27T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -544,6 +544,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -940,9 +943,6 @@
   </si>
   <si>
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Civilités des personnes physiques du RASS</t>
@@ -3661,13 +3661,13 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>72</v>
@@ -3685,7 +3685,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3802,10 +3802,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3904,10 +3904,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3930,19 +3930,19 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>72</v>
@@ -3991,7 +3991,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4108,10 +4108,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4210,10 +4210,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4239,16 +4239,16 @@
         <v>95</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
@@ -4261,7 +4261,7 @@
         <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>72</v>
@@ -4297,7 +4297,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4343,13 +4343,13 @@
         <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4399,7 +4399,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4445,16 +4445,16 @@
         <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>72</v>
@@ -4503,7 +4503,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4549,16 +4549,16 @@
         <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -4607,7 +4607,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4650,19 +4650,19 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>72</v>
@@ -4711,7 +4711,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4757,16 +4757,16 @@
         <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
@@ -4815,7 +4815,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4861,16 +4861,16 @@
         <v>95</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -4880,10 +4880,10 @@
         <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>72</v>
@@ -4919,7 +4919,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4965,13 +4965,13 @@
         <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4985,7 +4985,7 @@
         <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>72</v>
@@ -5021,7 +5021,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5064,16 +5064,16 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5123,7 +5123,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -5135,15 +5135,15 @@
         <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5166,16 +5166,16 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5225,7 +5225,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5237,15 +5237,15 @@
         <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5268,70 +5268,70 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5374,19 +5374,19 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>72</v>
@@ -5435,7 +5435,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5552,10 +5552,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5654,13 +5654,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="C35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>124</v>
@@ -5682,13 +5682,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>128</v>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5787,16 +5787,16 @@
         <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>72</v>
@@ -5824,10 +5824,10 @@
         <v>157</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>72</v>
@@ -5845,7 +5845,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5891,16 +5891,16 @@
         <v>145</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>72</v>
@@ -5949,7 +5949,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5966,14 +5966,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5995,13 +5995,13 @@
         <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6030,7 +6030,7 @@
         <v>105</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>72</v>
@@ -6051,7 +6051,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -6068,14 +6068,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6097,13 +6097,13 @@
         <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6132,7 +6132,7 @@
         <v>105</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>72</v>
@@ -6153,7 +6153,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6170,10 +6170,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6199,13 +6199,13 @@
         <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6231,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="Y40" t="s" s="2">
         <v>297</v>
@@ -6307,7 +6307,7 @@
         <v>302</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6333,7 +6333,7 @@
         <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="Y41" t="s" s="2">
         <v>303</v>
@@ -6400,7 +6400,7 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>307</v>
@@ -6409,7 +6409,7 @@
         <v>308</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>309</v>
@@ -6473,7 +6473,7 @@
         <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -6923,7 +6923,7 @@
         <v>327</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7326,7 +7326,7 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>354</v>
@@ -7335,7 +7335,7 @@
         <v>355</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7397,7 +7397,7 @@
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52">
@@ -7541,7 +7541,7 @@
         <v>365</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>366</v>
@@ -8654,19 +8654,19 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -8713,7 +8713,7 @@
         <v>131</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8758,19 +8758,19 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>72</v>
@@ -8817,7 +8817,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -9068,13 +9068,13 @@
         <v>416</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>72</v>
@@ -9123,7 +9123,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9169,13 +9169,13 @@
         <v>145</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9225,7 +9225,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9271,16 +9271,16 @@
         <v>101</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>72</v>
@@ -9329,7 +9329,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -9375,16 +9375,16 @@
         <v>145</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>72</v>
@@ -9433,7 +9433,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9476,19 +9476,19 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>72</v>
@@ -9537,7 +9537,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9582,19 +9582,19 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>72</v>
@@ -9641,7 +9641,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9892,13 +9892,13 @@
         <v>431</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>72</v>
@@ -9947,7 +9947,7 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
@@ -9993,13 +9993,13 @@
         <v>145</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10049,7 +10049,7 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
@@ -10095,16 +10095,16 @@
         <v>101</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>72</v>
@@ -10153,7 +10153,7 @@
         <v>72</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>73</v>
@@ -10199,16 +10199,16 @@
         <v>145</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>72</v>
@@ -10257,7 +10257,7 @@
         <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>73</v>
@@ -10300,19 +10300,19 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>72</v>
@@ -10361,7 +10361,7 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
@@ -10406,19 +10406,19 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>72</v>
@@ -10465,7 +10465,7 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -10716,13 +10716,13 @@
         <v>442</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>72</v>
@@ -10771,7 +10771,7 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -10817,13 +10817,13 @@
         <v>145</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10873,7 +10873,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -10919,16 +10919,16 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>72</v>
@@ -10977,7 +10977,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11023,16 +11023,16 @@
         <v>145</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>72</v>
@@ -11081,7 +11081,7 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11124,19 +11124,19 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>72</v>
@@ -11185,7 +11185,7 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
@@ -11230,19 +11230,19 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>72</v>
@@ -11289,7 +11289,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11543,10 +11543,10 @@
         <v>453</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>72</v>
@@ -11595,7 +11595,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -11641,13 +11641,13 @@
         <v>145</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11697,7 +11697,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
@@ -11743,16 +11743,16 @@
         <v>101</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>72</v>
@@ -11801,7 +11801,7 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
@@ -11847,16 +11847,16 @@
         <v>145</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>72</v>
@@ -11905,7 +11905,7 @@
         <v>72</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>73</v>
@@ -11948,19 +11948,19 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>72</v>
@@ -12009,7 +12009,7 @@
         <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12054,19 +12054,19 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>72</v>
@@ -12113,7 +12113,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12364,13 +12364,13 @@
         <v>464</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>72</v>
@@ -12419,7 +12419,7 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
@@ -12465,13 +12465,13 @@
         <v>145</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -12521,7 +12521,7 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
@@ -12567,16 +12567,16 @@
         <v>101</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>72</v>
@@ -12625,7 +12625,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -12671,16 +12671,16 @@
         <v>145</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>72</v>
@@ -12729,7 +12729,7 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
@@ -12772,19 +12772,19 @@
         <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>72</v>
@@ -12833,7 +12833,7 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
@@ -12878,19 +12878,19 @@
         <v>81</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>72</v>
@@ -12937,7 +12937,7 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
@@ -13188,13 +13188,13 @@
         <v>475</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>72</v>
@@ -13243,7 +13243,7 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
@@ -13289,13 +13289,13 @@
         <v>145</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13345,7 +13345,7 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
@@ -13391,16 +13391,16 @@
         <v>101</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>72</v>
@@ -13449,7 +13449,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -13495,16 +13495,16 @@
         <v>145</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>72</v>
@@ -13553,7 +13553,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -13596,19 +13596,19 @@
         <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>72</v>
@@ -13657,7 +13657,7 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
@@ -13702,19 +13702,19 @@
         <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>72</v>
@@ -13761,7 +13761,7 @@
         <v>72</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>73</v>
@@ -14012,13 +14012,13 @@
         <v>486</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>72</v>
@@ -14067,7 +14067,7 @@
         <v>72</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>73</v>
@@ -14113,13 +14113,13 @@
         <v>145</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14169,7 +14169,7 @@
         <v>72</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>73</v>
@@ -14215,16 +14215,16 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>72</v>
@@ -14273,7 +14273,7 @@
         <v>72</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>73</v>
@@ -14319,16 +14319,16 @@
         <v>145</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>72</v>
@@ -14377,7 +14377,7 @@
         <v>72</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>73</v>
@@ -14420,19 +14420,19 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>72</v>
@@ -14481,7 +14481,7 @@
         <v>72</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>73</v>
@@ -14526,19 +14526,19 @@
         <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>72</v>
@@ -14585,7 +14585,7 @@
         <v>72</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>73</v>
@@ -14836,13 +14836,13 @@
         <v>497</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>72</v>
@@ -14891,7 +14891,7 @@
         <v>72</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>73</v>
@@ -14937,13 +14937,13 @@
         <v>145</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -14993,7 +14993,7 @@
         <v>72</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>73</v>
@@ -15039,16 +15039,16 @@
         <v>101</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>72</v>
@@ -15097,7 +15097,7 @@
         <v>72</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>73</v>
@@ -15143,16 +15143,16 @@
         <v>145</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>72</v>
@@ -15201,7 +15201,7 @@
         <v>72</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>73</v>
@@ -15244,19 +15244,19 @@
         <v>81</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>72</v>
@@ -15305,7 +15305,7 @@
         <v>72</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>73</v>
@@ -15350,19 +15350,19 @@
         <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>72</v>
@@ -15409,7 +15409,7 @@
         <v>72</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>73</v>
@@ -15663,10 +15663,10 @@
         <v>508</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>72</v>
@@ -15715,7 +15715,7 @@
         <v>72</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>73</v>
@@ -15761,13 +15761,13 @@
         <v>145</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -15817,7 +15817,7 @@
         <v>72</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>73</v>
@@ -15863,16 +15863,16 @@
         <v>101</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>72</v>
@@ -15921,7 +15921,7 @@
         <v>72</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>73</v>
@@ -15967,16 +15967,16 @@
         <v>145</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>72</v>
@@ -16025,7 +16025,7 @@
         <v>72</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>73</v>
@@ -16068,19 +16068,19 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>72</v>
@@ -16129,7 +16129,7 @@
         <v>72</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>73</v>
@@ -16174,19 +16174,19 @@
         <v>81</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>72</v>
@@ -16233,7 +16233,7 @@
         <v>72</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>73</v>
@@ -16487,10 +16487,10 @@
         <v>519</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>72</v>
@@ -16539,7 +16539,7 @@
         <v>72</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>73</v>
@@ -16585,13 +16585,13 @@
         <v>145</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -16641,7 +16641,7 @@
         <v>72</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>73</v>
@@ -16687,16 +16687,16 @@
         <v>101</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>72</v>
@@ -16745,7 +16745,7 @@
         <v>72</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>73</v>
@@ -16791,16 +16791,16 @@
         <v>145</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>72</v>
@@ -16849,7 +16849,7 @@
         <v>72</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>73</v>
@@ -16892,19 +16892,19 @@
         <v>81</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>72</v>
@@ -16953,7 +16953,7 @@
         <v>72</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>73</v>
@@ -16998,19 +16998,19 @@
         <v>81</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>72</v>
@@ -17057,7 +17057,7 @@
         <v>72</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>73</v>
@@ -17308,13 +17308,13 @@
         <v>530</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>72</v>
@@ -17363,7 +17363,7 @@
         <v>72</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>73</v>
@@ -17409,13 +17409,13 @@
         <v>145</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -17465,7 +17465,7 @@
         <v>72</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>73</v>
@@ -17511,16 +17511,16 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>72</v>
@@ -17569,7 +17569,7 @@
         <v>72</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>73</v>
@@ -17615,16 +17615,16 @@
         <v>145</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>72</v>
@@ -17673,7 +17673,7 @@
         <v>72</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>73</v>
@@ -17716,19 +17716,19 @@
         <v>81</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>72</v>
@@ -17777,7 +17777,7 @@
         <v>72</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>73</v>
@@ -17822,19 +17822,19 @@
         <v>81</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>72</v>
@@ -17881,7 +17881,7 @@
         <v>72</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>73</v>
@@ -18135,10 +18135,10 @@
         <v>541</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>72</v>
@@ -18187,7 +18187,7 @@
         <v>72</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>73</v>
@@ -18233,13 +18233,13 @@
         <v>145</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18289,7 +18289,7 @@
         <v>72</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>73</v>
@@ -18335,16 +18335,16 @@
         <v>101</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>72</v>
@@ -18393,7 +18393,7 @@
         <v>72</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>73</v>
@@ -18439,16 +18439,16 @@
         <v>145</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>72</v>
@@ -18497,7 +18497,7 @@
         <v>72</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>73</v>
@@ -18540,19 +18540,19 @@
         <v>81</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>72</v>
@@ -18601,7 +18601,7 @@
         <v>72</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>73</v>
@@ -18646,19 +18646,19 @@
         <v>81</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>72</v>
@@ -18705,7 +18705,7 @@
         <v>72</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>73</v>
@@ -18959,10 +18959,10 @@
         <v>552</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>72</v>
@@ -19011,7 +19011,7 @@
         <v>72</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>73</v>
@@ -19057,13 +19057,13 @@
         <v>145</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -19113,7 +19113,7 @@
         <v>72</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>73</v>
@@ -19159,16 +19159,16 @@
         <v>101</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>72</v>
@@ -19217,7 +19217,7 @@
         <v>72</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>73</v>
@@ -19263,16 +19263,16 @@
         <v>145</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>72</v>
@@ -19321,7 +19321,7 @@
         <v>72</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>73</v>
@@ -19364,19 +19364,19 @@
         <v>81</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>72</v>
@@ -19425,7 +19425,7 @@
         <v>72</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>73</v>
@@ -19470,19 +19470,19 @@
         <v>81</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>72</v>
@@ -19529,7 +19529,7 @@
         <v>72</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>73</v>
@@ -19780,13 +19780,13 @@
         <v>563</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>72</v>
@@ -19835,7 +19835,7 @@
         <v>72</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>73</v>
@@ -19881,13 +19881,13 @@
         <v>145</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
@@ -19937,7 +19937,7 @@
         <v>72</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>73</v>
@@ -19983,16 +19983,16 @@
         <v>101</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>72</v>
@@ -20041,7 +20041,7 @@
         <v>72</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>73</v>
@@ -20087,16 +20087,16 @@
         <v>145</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>72</v>
@@ -20145,7 +20145,7 @@
         <v>72</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>73</v>
@@ -20188,19 +20188,19 @@
         <v>81</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>72</v>
@@ -20249,7 +20249,7 @@
         <v>72</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>73</v>
@@ -20295,16 +20295,16 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>72</v>
@@ -20353,7 +20353,7 @@
         <v>72</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>73</v>
@@ -20396,7 +20396,7 @@
         <v>72</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L178" t="s" s="2">
         <v>571</v>
@@ -20405,7 +20405,7 @@
         <v>572</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>573</v>
@@ -20469,7 +20469,7 @@
         <v>92</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179">
@@ -20500,7 +20500,7 @@
         <v>72</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L179" t="s" s="2">
         <v>575</v>
@@ -20571,7 +20571,7 @@
         <v>92</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180">

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
